--- a/Temperature_extinction_data.xlsx
+++ b/Temperature_extinction_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Hamilton_College\Teaching\Intro-EnvGeo_Challenges\Course Materials\Unit 4 - Climate and Ocean Systems\Lab 2 - Past Climate Cycles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA14A7-9B14-4F14-B196-646C78B05872}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAFE0F-C22A-4642-B704-C22EA86B2B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{779EEDB0-53B0-4CBB-99AA-36F471DBDE64}"/>
   </bookViews>
@@ -490,6 +490,1843 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A414-4A30-B8F4-279DE0007D21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1732763743"/>
+        <c:axId val="1655832415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1732763743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age (millions years)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655832415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1655832415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Extinction Rate (Families per myr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732763743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temperature_change!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temperature Change (Celsius)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Temperature_change!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>437.68529080000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429.98859750000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>423.31813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>413.56898519999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400.22805019999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387.91334089999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>377.65108320000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365.33637399999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353.0216648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>342.75940709999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330.95781069999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>319.15621440000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309.4070696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301.1972634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>294.52679590000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>284.77765110000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>274.00228049999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>264.25313569999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256.04332950000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>249.372862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>242.18928159999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>232.95324969999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>218.58608889999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>205.24515389999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>195.49600910000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>186.77309009999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>175.99771949999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166.76168759999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>160.604333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151.368301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>139.5667047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130.33067270000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119.5553022</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>106.72748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98.004560999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.768529079999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.993158489999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.270239450000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61.0604333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.824401369999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.640820980000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.97035348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.734321550000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.498289620000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temperature_change!$B$2:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0615384619999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3384615379999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6769230770000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9846153849999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.692307692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.769230769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2615384619999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3384615379999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6615384620000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7846153849999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9076923079999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.661538462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.461538462</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0615384619999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.307692308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2461538459999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2461538459999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9538461539999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.461538462</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1384615379999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2923076919999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4153846149999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5692307689999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.4307692310000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2153846150000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.076923077</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4923076919999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.569230769</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3230769229999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5692307689999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4923076919999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6769230770000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0307692309999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7846153849999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9384615380000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.2153846149999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.076923077</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0153846150000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.661538462</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5230769230000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0307692309999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C56C-4254-8AA1-371BDC2A36EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1878843295"/>
+        <c:axId val="1885298351"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Temperature_change!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate Temp Change (Celsius per million years)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Temperature_change!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>437.68529080000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429.98859750000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>423.31813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>413.56898519999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400.22805019999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387.91334089999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>377.65108320000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365.33637399999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353.0216648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>342.75940709999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330.95781069999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>319.15621440000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309.4070696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301.1972634</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>294.52679590000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>284.77765110000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>274.00228049999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>264.25313569999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256.04332950000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>249.372862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>242.18928159999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>232.95324969999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>218.58608889999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>205.24515389999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>195.49600910000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>186.77309009999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>175.99771949999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166.76168759999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>160.604333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151.368301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>139.5667047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>130.33067270000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119.5553022</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>106.72748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98.004560999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.768529079999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.993158489999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.270239450000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61.0604333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.824401369999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.640820980000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.97035348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.734321550000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.498289620000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Temperature_change!$C$2:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>36.436651730000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83767764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2474200039999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2474200039999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8836490889999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.122018454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2387211389999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.780160719999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8261896230000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88339278099999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.671386627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.584893192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33944485499999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0130110270000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.367607713</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4244620170000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62539419600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.234008035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1441461610000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>111.2125621</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.0139412419999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.122018454</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0164850410000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.584893192</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.776700940000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2645123549999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1800253230000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.611538989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.543339738</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9676826739999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8374376970000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5638800370000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7393405239999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1205472959999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3608963630000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1522280979999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35324573199999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.42510267</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45.065703380000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.004480090000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32187875100000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.8100572349999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4517817510000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78384604099999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3297412660000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C56C-4254-8AA1-371BDC2A36EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1705102287"/>
+        <c:axId val="1705099375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1878843295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age (millions of years ago)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1885298351"/>
+        <c:crossesAt val="-20"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1885298351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Change in temperature (˚C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1878843295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1705099375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rate of Temp Change (˚C/myr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705102287"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1705102287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1705099375"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Extinctions!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extinction rate (families per million years)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Extinctions!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>449.17662253793998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440.81912114362802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>428.93826870578499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>411.06745530865601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>401.32474241935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>392.65197992191798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387.98382598996102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>374.31840197258299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365.14236651304702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>354.51375231162098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>347.96724102503799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>333.70431796166298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>325.45028913611401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>316.62606041036702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>291.81642058296802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>283.05735756010199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>274.34056418234599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>267.87947280359202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>253.01420729738399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>241.72028649426099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>233.86385651803801</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>226.99988258431901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>208.61434819620101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>203.204714239586</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>191.496462852614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>186.93310241582699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>181.34998679073499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>174.476326063345</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166.15977338773499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>158.350016144656</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>146.90947251005301</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>142.82560835999601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>133.49810667214601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>128.471101065547</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123.852261719552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118.33695365016</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108.674376963043</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>104.143599377697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>93.9768691108697</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87.562450465259701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78.336219802154602</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>72.369595209440206</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68.512930401855201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.266768426923399</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>55.753221592743699</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51.632371503214301</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34.567323216015502</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.371914169137401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23.0792262306631</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.639269674465002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.4919129949804502</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0626119118209001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Extinctions!$B$2:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>2.71770334928229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.444976076555001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0239234449760799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2392344497607599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.75598086124401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7799043062200903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8708133971291798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8803827751196192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0287081339712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.03827751196172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4832535885167402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.52153110047847</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7464114832535804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.18660287081339</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7942583732057402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.06698564593301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.17703349282296</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3349282296650702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.1913875598086</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2822966507176998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7894736842105199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4354066985645897</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.2775119617224799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.1387559808612</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2200956937798999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8660287081339701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.18660287081339</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.41148325358852</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91866028708134095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4545454545454499</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1722488038277499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6602870813397104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.22488038277512</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.71770334928229</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.95215311004784</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2200956937798999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2200956937798999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.2822966507176998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3684210526315801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5550239234449803</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.52153110047847</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.1722488038277499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.535885167464102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.56937799043062</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.91387559808612</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7942583732057402</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0334928229664999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3397129186602801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.68421052631579</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7607655502392301</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.68899521531100605</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.02870813397129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1296-4B70-9F5B-BF720B6B5DA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -830,7 +2667,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1379,6 +4328,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>115887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B058C7CC-6A0B-4660-811F-D1E4DE5BABF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71EB29FB-22AF-4C59-BE66-D26C30CED379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2131,7 +5159,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2650,5 +5678,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>